--- a/src/main/resources/doc/报警处理明细.xlsx
+++ b/src/main/resources/doc/报警处理明细.xlsx
@@ -7,13 +7,37 @@
     <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
-    <sheet name="21日 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="报警明细模板" sheetId="1" r:id="rId1"/>
+    <sheet name="报警明细 " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gt</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">jx:area(lastCell="M5")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>gt</author>
@@ -50,60 +74,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
-  <si>
-    <t>建水县官厅汽车运输有限公司营运车辆北斗GPS监管平台报警情况每日处理明细表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t>${name}汽车运输有限公司营运车辆北斗GPS监管平台报警情况每日处理明细表</t>
+  </si>
+  <si>
+    <t>记录日期：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总报警次数：    次，已处理次数：     次，处理率：  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">值班人员：          </t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>车牌号</t>
+  </si>
+  <si>
+    <t>司机姓名</t>
+  </si>
+  <si>
+    <t>报警类型</t>
+  </si>
+  <si>
+    <t>报警信息</t>
+  </si>
+  <si>
+    <t>报警处理</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>报警时间</t>
+  </si>
+  <si>
+    <t>报警地点</t>
+  </si>
+  <si>
+    <t>车速</t>
+  </si>
+  <si>
+    <t>处理方式</t>
+  </si>
+  <si>
+    <t>回执状态</t>
+  </si>
+  <si>
+    <t>处理时间</t>
+  </si>
+  <si>
+    <t>处理人</t>
   </si>
   <si>
     <t>记录日期：${newDate}</t>
   </si>
   <si>
     <t xml:space="preserve">总报警次数：${count} 次，已处理次数：${iscount} 次，处理率：${OnlineRate}  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">值班人员：          </t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>车牌号</t>
-  </si>
-  <si>
-    <t>司机姓名</t>
-  </si>
-  <si>
-    <t>报警类型</t>
-  </si>
-  <si>
-    <t>报警信息</t>
-  </si>
-  <si>
-    <t>报警处理</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>报警时间</t>
-  </si>
-  <si>
-    <t>报警地点</t>
-  </si>
-  <si>
-    <t>车速</t>
-  </si>
-  <si>
-    <t>处理方式</t>
-  </si>
-  <si>
-    <t>回执状态</t>
-  </si>
-  <si>
-    <t>处理时间</t>
-  </si>
-  <si>
-    <t>处理人</t>
   </si>
   <si>
     <t>${hGpsCarDetails.num}</t>
@@ -144,9 +174,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -207,7 +237,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,106 +343,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,19 +394,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,97 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,61 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,24 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -686,6 +698,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -700,17 +741,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -719,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,8 +1246,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="4"/>
@@ -1328,39 +1358,189 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="L3:L4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="80.6333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6333333333333" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/报警处理明细.xlsx
+++ b/src/main/resources/doc/报警处理明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28080" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="报警明细模板" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>${name}汽车运输有限公司营运车辆北斗GPS监管平台报警情况每日处理明细表</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>${hGpsCarDetails.WayTime}</t>
+  </si>
+  <si>
+    <t>${member}</t>
   </si>
   <si>
     <t>${hGpsCarDetails.Note}</t>
@@ -174,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -230,12 +233,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -244,15 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,106 +375,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -394,187 +397,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,21 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -700,29 +688,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,6 +709,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -749,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +764,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,7 +1249,7 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1396,8 +1399,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="4"/>
@@ -1538,9 +1541,11 @@
       <c r="J5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="L5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/报警处理明细.xlsx
+++ b/src/main/resources/doc/报警处理明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="报警明细模板" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>${name}汽车运输有限公司营运车辆北斗GPS监管平台报警情况每日处理明细表</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>处理人</t>
+  </si>
+  <si>
+    <t>${name}营运车辆北斗GPS监管平台报警情况每日处理明细表</t>
   </si>
   <si>
     <t>记录日期：${newDate}</t>
@@ -246,6 +249,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -262,22 +293,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,38 +334,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,46 +347,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,187 +400,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,15 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -671,6 +665,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -682,15 +694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,130 +770,130 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,8 +1402,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="4"/>
@@ -1420,7 +1423,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1436,13 +1439,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1512,40 +1515,40 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
